--- a/R/New_nums_N_init_RM20181018.xlsx
+++ b/R/New_nums_N_init_RM20181018.xlsx
@@ -1204,8 +1204,8 @@
   <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H542" sqref="H542"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/R/New_nums_N_init_RM20181018.xlsx
+++ b/R/New_nums_N_init_RM20181018.xlsx
@@ -1204,8 +1204,8 @@
   <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A532" sqref="A532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
